--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rdbd477c4f02243ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb03fb49124b540f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb03fb49124b540f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R73e26a2b9b95447a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R73e26a2b9b95447a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R03c5880073564fd1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R03c5880073564fd1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb97c85b447df405a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb97c85b447df405a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R479934f820b1410f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R479934f820b1410f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R7986eaa9b7f341f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R7986eaa9b7f341f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R4edbcd01e4e44a8f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R4edbcd01e4e44a8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R86d6012c1eec47f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R86d6012c1eec47f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf656f5f17bdf42e7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf656f5f17bdf42e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd5dbed92941b4c1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd5dbed92941b4c1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R87a9cfbaddcd4a82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R87a9cfbaddcd4a82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R58d921d9330a4db9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/011_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R58d921d9330a4db9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R30eb955efb85475e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
